--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -150,6 +150,36 @@
   </si>
   <si>
     <t>Http_GM</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot1</t>
+  </si>
+  <si>
+    <t>Robot2</t>
+  </si>
+  <si>
+    <t>Robot3</t>
+  </si>
+  <si>
+    <t>Robot4</t>
+  </si>
+  <si>
+    <t>Robot5</t>
+  </si>
+  <si>
+    <t>Robot6</t>
+  </si>
+  <si>
+    <t>Robot7</t>
+  </si>
+  <si>
+    <t>Robot8</t>
+  </si>
+  <si>
+    <t>Robot9</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1188,7 @@
   <dimension ref="C1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1827,23 +1857,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H6"/>
+  <dimension ref="C3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="13.2727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7272727272727" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:8">
+    <row r="3" ht="13.5" spans="3:10">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1862,8 +1894,14 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" spans="3:8">
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="3:10">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1882,8 +1920,14 @@
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="13.5" spans="3:8">
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="3:10">
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1902,14 +1946,194 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="5">
+        <v>201</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="3">
+        <v>202</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5">
+        <v>12002</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="3">
+        <v>203</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="3">
+        <v>204</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="5">
+        <v>12004</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="3">
+        <v>205</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="5">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="3">
+        <v>206</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="5">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="3">
+        <v>207</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="5">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="3">
+        <v>208</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="3">
+        <v>209</v>
+      </c>
+      <c r="D14" s="5">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="5">
+        <v>12009</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1187,8 +1187,8 @@
   <sheetPr/>
   <dimension ref="C1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1859,8 +1859,8 @@
   <sheetPr/>
   <dimension ref="C3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -140,16 +140,13 @@
     <t>Location4</t>
   </si>
   <si>
+    <t>Http</t>
+  </si>
+  <si>
     <t>Realm_GM</t>
   </si>
   <si>
     <t>Gate_GM</t>
-  </si>
-  <si>
-    <t>Http</t>
-  </si>
-  <si>
-    <t>Http_GM</t>
   </si>
   <si>
     <t>Robot</t>
@@ -1185,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L28"/>
+  <dimension ref="C1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1782,11 +1779,11 @@
       <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
+      <c r="F26" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" s="5">
         <v>11102</v>
@@ -1810,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" s="5">
         <v>11103</v>
@@ -1825,27 +1822,6 @@
         <v>1</v>
       </c>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="3:12">
-      <c r="C28" s="3">
-        <v>103</v>
-      </c>
-      <c r="D28" s="5">
-        <v>99</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="5">
-        <v>11199</v>
-      </c>
-      <c r="L28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1964,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="H6" s="5">
         <v>12001</v>
@@ -1984,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="5">
         <v>12002</v>
@@ -2006,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5">
         <v>12003</v>
@@ -2026,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="5">
         <v>12004</v>
@@ -2046,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="5">
         <v>12005</v>
@@ -2066,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5">
         <v>12006</v>
@@ -2086,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="5">
         <v>12007</v>
@@ -2106,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5">
         <v>12008</v>
@@ -2126,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="5">
         <v>12009</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>WatcherManager</t>
+  </si>
+  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
     <t>Gate1_2</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>Manager1</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>Manager2</t>
   </si>
   <si>
-    <t>Location2</t>
-  </si>
-  <si>
     <t>Realm3</t>
   </si>
   <si>
@@ -122,9 +122,6 @@
     <t>Manager3</t>
   </si>
   <si>
-    <t>Location3</t>
-  </si>
-  <si>
     <t>Realm4</t>
   </si>
   <si>
@@ -137,16 +134,16 @@
     <t>Manager4</t>
   </si>
   <si>
-    <t>Location4</t>
+    <t>GmWeb</t>
   </si>
   <si>
     <t>Http</t>
   </si>
   <si>
-    <t>Realm_GM</t>
-  </si>
-  <si>
-    <t>Gate_GM</t>
+    <t>GameHttp</t>
+  </si>
+  <si>
+    <t>Manager_GM</t>
   </si>
   <si>
     <t>Robot</t>
@@ -1182,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L27"/>
+  <dimension ref="C1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1194,7 +1191,8 @@
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.7272727272727" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.1272727272727" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.2727272727273" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.7272727272727" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
@@ -1295,78 +1293,74 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:10">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
+      <c r="C6" s="3">
+        <v>999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9999</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5">
-        <v>11002</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="3:12">
-      <c r="C7" s="3">
-        <v>2</v>
+      <c r="C7" s="5">
+        <v>101</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="5">
-        <v>11003</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
+        <f t="shared" ref="H7:H9" si="0">10000+C7</f>
+        <v>10101</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="3:12">
       <c r="C8" s="3">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5">
-        <v>11004</v>
-      </c>
-      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>10102</v>
+      </c>
+      <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6">
@@ -1376,116 +1370,119 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="3:12">
       <c r="C9" s="3">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>10103</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="3:12">
       <c r="C10" s="3">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="H10" s="5"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="3:12">
       <c r="C11" s="3">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="5">
-        <v>11012</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="3:12">
       <c r="C12" s="3">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="5">
-        <v>11013</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
+        <f t="shared" ref="H12:H14" si="1">10000+C12</f>
+        <v>10111</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="3:12">
       <c r="C13" s="3">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>1100</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="5">
-        <v>11014</v>
-      </c>
-      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>10112</v>
+      </c>
+      <c r="I13" s="6">
         <v>1</v>
       </c>
       <c r="J13" s="6">
@@ -1495,35 +1492,44 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="3:12">
       <c r="C14" s="3">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1100</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>10113</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="3:12">
       <c r="C15" s="3">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D15" s="5">
-        <v>2</v>
+        <v>1100</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>30</v>
@@ -1533,22 +1539,23 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="3:12">
       <c r="C16" s="3">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="D16" s="5">
-        <v>3</v>
+        <v>1200</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="5">
-        <v>11022</v>
+        <f t="shared" ref="H16:H18" si="2">10000+C16</f>
+        <v>10121</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1560,22 +1567,23 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="3:12">
       <c r="C17" s="3">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D17" s="5">
-        <v>3</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="5">
-        <v>11023</v>
+        <f t="shared" si="2"/>
+        <v>10122</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
@@ -1587,22 +1595,23 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="3:12">
       <c r="C18" s="3">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="D18" s="5">
-        <v>3</v>
+        <v>1200</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="5">
-        <v>11024</v>
+        <f t="shared" si="2"/>
+        <v>10123</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1614,16 +1623,16 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="3:12">
       <c r="C19" s="3">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D19" s="5">
-        <v>3</v>
+        <v>1200</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>34</v>
@@ -1633,70 +1642,81 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="3:12">
       <c r="C20" s="3">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1300</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <f t="shared" ref="H20:H22" si="3">10000+C20</f>
+        <v>10131</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="3:12">
       <c r="C21" s="3">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>1300</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="5">
-        <v>11032</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>10132</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
         <v>1</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="3:12">
       <c r="C22" s="3">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H22" s="5">
-        <v>11033</v>
-      </c>
-      <c r="I22" s="6">
+        <f t="shared" si="3"/>
+        <v>10133</v>
+      </c>
+      <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="6">
@@ -1706,122 +1726,107 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="3:12">
       <c r="C23" s="3">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>1300</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="5">
-        <v>11034</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
+      <c r="H23" s="5"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="3:12">
-      <c r="C24" s="3">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4</v>
+      <c r="C24" s="5">
+        <v>191</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1900</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <f>10000+C24</f>
+        <v>10191</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="6"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="3:12">
-      <c r="C25" s="3">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
+      <c r="C25" s="5">
+        <v>192</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1900</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="H25" s="5">
+        <v>8080</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="3:12">
-      <c r="C26" s="5">
-        <v>101</v>
+      <c r="C26" s="3">
+        <v>193</v>
       </c>
       <c r="D26" s="5">
-        <v>99</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="5">
-        <v>11102</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
+      <c r="H26" s="5"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="3:12">
-      <c r="C27" s="3">
-        <v>102</v>
-      </c>
-      <c r="D27" s="5">
-        <v>99</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="5">
-        <v>11103</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="6"/>
       <c r="L27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="3:12">
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="6"/>
+      <c r="L28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,7 +1841,7 @@
   <dimension ref="C3:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1934,19 +1939,20 @@
         <v>201</v>
       </c>
       <c r="D6" s="5">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="H6" s="5">
-        <v>12001</v>
+        <f t="shared" ref="H6:H14" si="0">10000+C6</f>
+        <v>10201</v>
       </c>
     </row>
     <row r="7" spans="3:10">
@@ -1954,41 +1960,43 @@
         <v>202</v>
       </c>
       <c r="D7" s="5">
-        <v>6</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5">
-        <v>12002</v>
+        <f t="shared" si="0"/>
+        <v>10202</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>203</v>
       </c>
       <c r="D8" s="5">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5">
-        <v>12003</v>
+        <f t="shared" si="0"/>
+        <v>10203</v>
       </c>
     </row>
     <row r="9" spans="3:8">
@@ -1996,39 +2004,41 @@
         <v>204</v>
       </c>
       <c r="D9" s="5">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>10204</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="5">
+        <v>205</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="5">
-        <v>12004</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="3">
-        <v>205</v>
-      </c>
-      <c r="D10" s="5">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" s="5">
-        <v>12005</v>
+        <f t="shared" si="0"/>
+        <v>10205</v>
       </c>
     </row>
     <row r="11" spans="3:8">
@@ -2036,39 +2046,41 @@
         <v>206</v>
       </c>
       <c r="D11" s="5">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="5">
+        <v>207</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="5">
-        <v>12006</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="3">
-        <v>207</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="H12" s="5">
-        <v>12007</v>
+        <f t="shared" si="0"/>
+        <v>10207</v>
       </c>
     </row>
     <row r="13" spans="3:8">
@@ -2076,39 +2088,41 @@
         <v>208</v>
       </c>
       <c r="D13" s="5">
-        <v>12</v>
+        <v>2000</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="5">
+        <v>209</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="5">
-        <v>12008</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="3">
-        <v>209</v>
-      </c>
-      <c r="D14" s="5">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="H14" s="5">
-        <v>12009</v>
+        <f t="shared" si="0"/>
+        <v>10209</v>
       </c>
     </row>
   </sheetData>
